--- a/public/import_format/warga.xlsx
+++ b/public/import_format/warga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\desa\public\import_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B321BD4-02E8-4D60-ABB8-02CC0A6F4D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529B2EB-C8BF-48C9-9E2B-6239F800CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2475" windowWidth="15375" windowHeight="8325" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3D4E21-09F7-4064-9D60-8E16FE2D2353}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,37 +551,37 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/public/import_format/warga.xlsx
+++ b/public/import_format/warga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\desa\public\import_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529B2EB-C8BF-48C9-9E2B-6239F800CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7CE63-815E-4E9B-9872-FA484D29FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A520374E-9359-483B-B733-269700D4823D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>tempat_lahir</t>
   </si>
   <si>
-    <t>Kudus</t>
-  </si>
-  <si>
     <t>tanggal_lahir</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>pendidikan</t>
   </si>
   <si>
-    <t>Belum Taman SD/Sederajat</t>
-  </si>
-  <si>
     <t>pekerjaan</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>62895621061193</t>
+  </si>
+  <si>
+    <t>Kab. Kudus</t>
+  </si>
+  <si>
+    <t>Belum Tamat SD/Sederajat</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3D4E21-09F7-4064-9D60-8E16FE2D2353}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="A2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,34 +511,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -552,37 +552,37 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
